--- a/TestCase_Scenrio/test case capstone.xlsx
+++ b/TestCase_Scenrio/test case capstone.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kampus merdeka\section 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kampus merdeka\QE_Capstone Kanbo\TestCase_Scenrio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E754241-DECD-4713-A834-974BD04607C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E224BA-A2A9-445D-A676-10CD26121B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="383">
   <si>
     <t>NO</t>
   </si>
@@ -310,9 +310,6 @@
 </t>
   </si>
   <si>
-    <t>register with invalid email</t>
-  </si>
-  <si>
     <t xml:space="preserve">Given admin set endpoint for login
 When admin send login with invalid password
 Then admin see status code 401 and fail to login
@@ -331,9 +328,6 @@
 role : user</t>
   </si>
   <si>
-    <t>register with valid endpoint</t>
-  </si>
-  <si>
     <t xml:space="preserve">email : dewde@gmail.com
 password : password!2
 endpoint : 3.88.14.239:80/api/auth/signinnn
@@ -346,11 +340,6 @@
   </si>
   <si>
     <t xml:space="preserve">fail to login
-and status code 400
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fail to login
 and status code 401
 </t>
   </si>
@@ -364,9 +353,6 @@
   </si>
   <si>
     <t>L_007</t>
-  </si>
-  <si>
-    <t>register with empty email</t>
   </si>
   <si>
     <t>register with empty password</t>
@@ -1654,6 +1640,51 @@
   </si>
   <si>
     <t xml:space="preserve">status code 500
+</t>
+  </si>
+  <si>
+    <t>Login with invalid endpoint</t>
+  </si>
+  <si>
+    <t>Login with empty data</t>
+  </si>
+  <si>
+    <t>Login with invalid password</t>
+  </si>
+  <si>
+    <t>Login with not register email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with not use @ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given admin set endpoint for login
+When admin send login with not use @
+Then admin see status code 400 and fail to login
+And admin get error message
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email : "user01gmail.com "
+password : "password!2 "
+</t>
+  </si>
+  <si>
+    <t>Login with empty email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login with not use domain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given admin set endpoint for login
+When admin send login with not use domain
+Then admin see status code 400 and fail to login
+And admin get error message
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email : "user01"
+password : "password!2 "
 </t>
   </si>
 </sst>
@@ -1905,11 +1936,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1917,8 +1945,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3006,16 +3037,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3048,7 +3079,7 @@
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C4" s="21">
         <v>4</v>
@@ -3118,16 +3149,16 @@
         <v>59</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>16</v>
@@ -3146,19 +3177,19 @@
         <v>15</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>17</v>
@@ -3177,19 +3208,19 @@
         <v>15</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>17</v>
@@ -3208,19 +3239,19 @@
         <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>17</v>
@@ -3239,19 +3270,19 @@
         <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>17</v>
@@ -3264,25 +3295,25 @@
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>17</v>
@@ -3295,25 +3326,25 @@
         <v>7</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>17</v>
@@ -3326,25 +3357,25 @@
         <v>8</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>16</v>
@@ -3357,25 +3388,25 @@
         <v>9</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>16</v>
@@ -3388,25 +3419,25 @@
         <v>10</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>332</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>16</v>
@@ -3425,19 +3456,19 @@
         <v>19</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>16</v>
@@ -3456,19 +3487,19 @@
         <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="H19" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>17</v>
@@ -3487,19 +3518,19 @@
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>17</v>
@@ -3518,19 +3549,19 @@
         <v>19</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="H21" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>17</v>
@@ -3549,19 +3580,19 @@
         <v>19</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>17</v>
@@ -3580,19 +3611,19 @@
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>17</v>
@@ -3611,19 +3642,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>17</v>
@@ -3642,19 +3673,19 @@
         <v>19</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>17</v>
@@ -3673,19 +3704,19 @@
         <v>19</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>17</v>
@@ -3698,23 +3729,23 @@
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>16</v>
@@ -3727,25 +3758,25 @@
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="F28" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>16</v>
@@ -3758,23 +3789,23 @@
         <v>3</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="F29" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>16</v>
@@ -3787,23 +3818,23 @@
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="F30" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>16</v>
@@ -3816,23 +3847,23 @@
         <v>2</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>16</v>
@@ -3845,23 +3876,23 @@
         <v>3</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="F32" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>16</v>
@@ -3874,23 +3905,23 @@
         <v>1</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>16</v>
@@ -3903,23 +3934,23 @@
         <v>2</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>181</v>
-      </c>
       <c r="F34" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>16</v>
@@ -3932,23 +3963,23 @@
         <v>3</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>181</v>
-      </c>
       <c r="F35" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>16</v>
@@ -3961,25 +3992,25 @@
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>218</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>16</v>
@@ -3992,25 +4023,25 @@
         <v>2</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>17</v>
@@ -5654,16 +5685,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -5696,7 +5727,7 @@
     </row>
     <row r="4" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C4" s="21">
         <v>1</v>
@@ -5710,7 +5741,7 @@
     </row>
     <row r="5" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -5780,16 +5811,16 @@
         <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>16</v>
@@ -5808,19 +5839,19 @@
         <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>17</v>
@@ -5839,19 +5870,19 @@
         <v>15</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>17</v>
@@ -5870,19 +5901,19 @@
         <v>15</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>17</v>
@@ -5901,19 +5932,19 @@
         <v>15</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>17</v>
@@ -5926,25 +5957,25 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>17</v>
@@ -5963,19 +5994,19 @@
         <v>19</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>16</v>
@@ -5994,19 +6025,19 @@
         <v>19</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="H17" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>17</v>
@@ -6025,19 +6056,19 @@
         <v>19</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>17</v>
@@ -6056,19 +6087,19 @@
         <v>19</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="H19" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>17</v>
@@ -6087,19 +6118,19 @@
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>17</v>
@@ -6118,19 +6149,19 @@
         <v>19</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>17</v>
@@ -6149,19 +6180,19 @@
         <v>19</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>17</v>
@@ -6180,19 +6211,19 @@
         <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>17</v>
@@ -6211,19 +6242,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>17</v>
@@ -6236,23 +6267,23 @@
         <v>1</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="E25" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>16</v>
@@ -6265,23 +6296,23 @@
         <v>2</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>16</v>
@@ -6294,23 +6325,23 @@
         <v>3</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>16</v>
@@ -6323,23 +6354,23 @@
         <v>4</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>16</v>
@@ -6352,25 +6383,25 @@
         <v>1</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>16</v>
@@ -6383,25 +6414,25 @@
         <v>2</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>17</v>
@@ -6414,25 +6445,25 @@
         <v>3</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>210</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>17</v>
@@ -8089,10 +8120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C86B87-DE60-405D-A5DF-E778A791EEAC}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8112,16 +8143,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="22" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8132,10 +8163,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="21">
+        <v>8</v>
+      </c>
+      <c r="E2" s="21">
         <v>9</v>
-      </c>
-      <c r="E2" s="21">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -8154,7 +8185,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C4" s="21">
         <v>3</v>
@@ -8171,7 +8202,7 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8224,7 +8255,7 @@
         <v>58</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>24</v>
@@ -8250,13 +8281,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>29</v>
@@ -8264,7 +8295,9 @@
       <c r="H10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="14" t="s">
         <v>54</v>
       </c>
@@ -8294,7 +8327,9 @@
       <c r="H11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J11" s="14" t="s">
         <v>54</v>
       </c>
@@ -8324,7 +8359,9 @@
       <c r="H12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J12" s="14" t="s">
         <v>54</v>
       </c>
@@ -8354,7 +8391,9 @@
       <c r="H13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J13" s="14" t="s">
         <v>54</v>
       </c>
@@ -8373,7 +8412,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>36</v>
@@ -8384,7 +8423,9 @@
       <c r="H14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J14" s="14" t="s">
         <v>54</v>
       </c>
@@ -8414,7 +8455,9 @@
       <c r="H15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J15" s="14" t="s">
         <v>54</v>
       </c>
@@ -8430,7 +8473,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>41</v>
@@ -8444,7 +8487,9 @@
       <c r="H16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J16" s="14" t="s">
         <v>54</v>
       </c>
@@ -8460,10 +8505,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>42</v>
@@ -8474,7 +8519,9 @@
       <c r="H17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J17" s="14" t="s">
         <v>54</v>
       </c>
@@ -8504,7 +8551,9 @@
       <c r="H18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J18" s="14" t="s">
         <v>54</v>
       </c>
@@ -8514,19 +8563,19 @@
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>29</v>
@@ -8534,7 +8583,9 @@
       <c r="H19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J19" s="14" t="s">
         <v>54</v>
       </c>
@@ -8544,22 +8595,22 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>349</v>
-      </c>
       <c r="F20" s="12" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>16</v>
@@ -8574,27 +8625,29 @@
         <v>13</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="12"/>
+      <c r="I21" s="12" t="s">
+        <v>343</v>
+      </c>
       <c r="J21" s="14" t="s">
         <v>54</v>
       </c>
@@ -8604,27 +8657,29 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="12"/>
+      <c r="I22" s="12" t="s">
+        <v>343</v>
+      </c>
       <c r="J22" s="14" t="s">
         <v>54</v>
       </c>
@@ -8634,31 +8689,31 @@
         <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8666,31 +8721,31 @@
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>374</v>
+        <v>371</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8698,19 +8753,19 @@
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>29</v>
@@ -8718,7 +8773,9 @@
       <c r="H25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J25" s="14" t="s">
         <v>54</v>
       </c>
@@ -8728,19 +8785,19 @@
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>29</v>
@@ -8748,7 +8805,9 @@
       <c r="H26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="J26" s="14" t="s">
         <v>54</v>
       </c>
@@ -8773,13 +8832,17 @@
         <v>61</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="I27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
@@ -8792,7 +8855,7 @@
         <v>56</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>48</v>
+        <v>373</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>62</v>
@@ -8801,13 +8864,15 @@
         <v>63</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="J28" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
@@ -8820,7 +8885,7 @@
         <v>56</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>66</v>
+        <v>375</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>64</v>
@@ -8829,13 +8894,15 @@
         <v>65</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="J29" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
@@ -8848,22 +8915,26 @@
         <v>56</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>51</v>
+        <v>374</v>
       </c>
       <c r="E30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="G30" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="I30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
@@ -8876,156 +8947,176 @@
         <v>56</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>70</v>
+        <v>372</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="I31" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>6</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="I32" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>7</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
+        <v>8</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>9</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
         <v>1</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
-        <v>2</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
-        <v>3</v>
-      </c>
       <c r="B36" s="12" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>16</v>
@@ -9033,25 +9124,27 @@
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="12"/>
+        <v>237</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="G37" s="12" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>16</v>
@@ -9059,27 +9152,27 @@
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>16</v>
@@ -9087,27 +9180,25 @@
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>282</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>16</v>
@@ -9115,53 +9206,55 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C40" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>255</v>
-      </c>
       <c r="F40" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F41" s="12"/>
+        <v>247</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="G41" s="12" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>16</v>
@@ -9169,55 +9262,53 @@
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
     </row>
-    <row r="42" spans="1:10" ht="150" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
     </row>
-    <row r="43" spans="1:10" ht="150" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>269</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="F43" s="12"/>
       <c r="G43" s="12" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>16</v>
@@ -9227,51 +9318,53 @@
     </row>
     <row r="44" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" ht="135" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>266</v>
+        <v>171</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F45" s="12"/>
+        <v>275</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>265</v>
+      </c>
       <c r="G45" s="12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H45" s="12" t="s">
         <v>16</v>
@@ -9279,31 +9372,85 @@
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" ht="135" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="150" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>283</v>
+        <v>172</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="F46" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>272</v>
+      </c>
       <c r="G46" s="12" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" ht="135" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>4</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="1:10" ht="135" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>5</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9330,32 +9477,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="A1" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
         <v>288</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>292</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>15</v>
@@ -9364,7 +9511,7 @@
       <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
@@ -9372,114 +9519,114 @@
       <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>294</v>
+      <c r="A6" s="27" t="s">
+        <v>290</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="16" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>298</v>
+      <c r="A9" s="27" t="s">
+        <v>294</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>288</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>292</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>15</v>
@@ -9488,7 +9635,7 @@
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="16" t="s">
         <v>23</v>
       </c>
@@ -9496,85 +9643,85 @@
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>294</v>
+      <c r="A22" s="27" t="s">
+        <v>290</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="16" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>298</v>
+      <c r="A25" s="24" t="s">
+        <v>294</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="16" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="A29" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -9582,7 +9729,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="16" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -9590,7 +9737,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -9598,17 +9745,17 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -9616,7 +9763,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16"/>
@@ -9624,7 +9771,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -9632,7 +9779,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -9640,7 +9787,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -9648,7 +9795,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -9656,7 +9803,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="16" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -9664,7 +9811,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -9672,13 +9819,15 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="16" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A17:D17"/>
@@ -9686,14 +9835,27 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumen" ma:contentTypeID="0x0101007F194571566222439F7939AA0EB5ED5D" ma:contentTypeVersion="4" ma:contentTypeDescription="Buat sebuah dokumen baru." ma:contentTypeScope="" ma:versionID="fe67807428beceb4e891c5dfc8419d35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="72cb3bd3-a03c-4d3d-aab4-2e7a119e4c6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="079aedd13c0a7a4e12f19469e0f40235" ns3:_="">
     <xsd:import namespace="72cb3bd3-a03c-4d3d-aab4-2e7a119e4c6c"/>
@@ -9839,22 +10001,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB29C12-279A-416E-99E7-60AFC9047125}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="72cb3bd3-a03c-4d3d-aab4-2e7a119e4c6c"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032E0CA9-BD87-43E7-B7D1-F25D989912F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1353846D-A020-45E4-9ED7-6F4FF2B23AF0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9870,28 +10041,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{032E0CA9-BD87-43E7-B7D1-F25D989912F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CB29C12-279A-416E-99E7-60AFC9047125}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="72cb3bd3-a03c-4d3d-aab4-2e7a119e4c6c"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>